--- a/2024/shuffle-architecute/Teste10/content/results/metrics_5_9.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_5_9.xlsx
@@ -488,445 +488,445 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_24</t>
+          <t>model_5_9_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9719029740671501</v>
+        <v>0.9557406921192269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75795531272996</v>
+        <v>0.7666327175297288</v>
       </c>
       <c r="D2" t="n">
-        <v>0.897434718712651</v>
+        <v>0.9455644554098777</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9435391415456662</v>
+        <v>0.9201836331290987</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9445544111460812</v>
+        <v>0.9400524584005242</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1179172098636627</v>
+        <v>0.1857468634843826</v>
       </c>
       <c r="H2" t="n">
-        <v>1.618553876876831</v>
+        <v>1.560528039932251</v>
       </c>
       <c r="I2" t="n">
-        <v>0.447047084569931</v>
+        <v>0.1830184012651443</v>
       </c>
       <c r="J2" t="n">
-        <v>0.088296078145504</v>
+        <v>0.3437269628047943</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2676715552806854</v>
+        <v>0.263372540473938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_23</t>
+          <t>model_5_9_2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9716545117151838</v>
+        <v>0.9554696777153813</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7578993985882658</v>
+        <v>0.766628396043269</v>
       </c>
       <c r="D3" t="n">
-        <v>0.896638805772219</v>
+        <v>0.946976639592078</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9442087933627136</v>
+        <v>0.9204290109773107</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9443035698165597</v>
+        <v>0.940713047688197</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1189599484205246</v>
+        <v>0.1868842095136642</v>
       </c>
       <c r="H3" t="n">
-        <v>1.618927836418152</v>
+        <v>1.560556888580322</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4505162239074707</v>
+        <v>0.1782704740762711</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08724885433912277</v>
+        <v>0.3426702618598938</v>
       </c>
       <c r="K3" t="n">
-        <v>0.268882542848587</v>
+        <v>0.2604703307151794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_22</t>
+          <t>model_5_9_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9714010556039513</v>
+        <v>0.9559789172829346</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7578408425982537</v>
+        <v>0.7666222987696162</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8958334299486007</v>
+        <v>0.944135677411386</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9448739743050956</v>
+        <v>0.9198113191164369</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9440477419997204</v>
+        <v>0.9393232440547979</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1200236603617668</v>
+        <v>0.184747040271759</v>
       </c>
       <c r="H4" t="n">
-        <v>1.619319438934326</v>
+        <v>1.560597777366638</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4540265798568726</v>
+        <v>0.1878221184015274</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08620860427618027</v>
+        <v>0.3453302979469299</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2701175808906555</v>
+        <v>0.2665762603282928</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_21</t>
+          <t>model_5_9_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9711424590664438</v>
+        <v>0.9551638901616039</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7577795344401983</v>
+        <v>0.7666084301720564</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8950182709477619</v>
+        <v>0.9483692037537985</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9455345008414857</v>
+        <v>0.920539085639293</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9437867392007583</v>
+        <v>0.9412998426032921</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1211089193820953</v>
+        <v>0.1881675571203232</v>
       </c>
       <c r="H5" t="n">
-        <v>1.619729280471802</v>
+        <v>1.560690522193909</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4575795829296112</v>
+        <v>0.1735885143280029</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08517564088106155</v>
+        <v>0.3421962261199951</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2713776230812073</v>
+        <v>0.2578923106193542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_20</t>
+          <t>model_5_9_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9708786967273102</v>
+        <v>0.956186162925463</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7577154377049542</v>
+        <v>0.7665979112079553</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8941935200059671</v>
+        <v>0.942693090157014</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9461903533425418</v>
+        <v>0.9193196584414904</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9435206532507463</v>
+        <v>0.9385302950886695</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1222158744931221</v>
+        <v>0.1838772892951965</v>
       </c>
       <c r="H6" t="n">
-        <v>1.620157957077026</v>
+        <v>1.560760974884033</v>
       </c>
       <c r="I6" t="n">
-        <v>0.4611743986606598</v>
+        <v>0.1926722377538681</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08414999395608902</v>
+        <v>0.3474476635456085</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2726621925830841</v>
+        <v>0.2700600028038025</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_19</t>
+          <t>model_5_9_0</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9706096394492699</v>
+        <v>0.9548214658789167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7576484725521581</v>
+        <v>0.7665719590930189</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8933590384502155</v>
+        <v>0.9497391728156277</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9468410773836382</v>
+        <v>0.9205055194912642</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9432493423522473</v>
+        <v>0.9418075906942064</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1233450621366501</v>
+        <v>0.189604640007019</v>
       </c>
       <c r="H7" t="n">
-        <v>1.620605707168579</v>
+        <v>1.56093442440033</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4648115932941437</v>
+        <v>0.168982520699501</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08313236385583878</v>
+        <v>0.3423407673835754</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2739719748497009</v>
+        <v>0.2556615769863129</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_18</t>
+          <t>model_5_9_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.97033517046982</v>
+        <v>0.9563641997622906</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7575786088442735</v>
+        <v>0.7665603794801407</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8925146076942516</v>
+        <v>0.9412393112076465</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9474868896598734</v>
+        <v>0.9187162072886934</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9429727494862139</v>
+        <v>0.9376782896984455</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1244969442486763</v>
+        <v>0.1831301152706146</v>
       </c>
       <c r="H8" t="n">
-        <v>1.621073007583618</v>
+        <v>1.561011791229248</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4684922099113464</v>
+        <v>0.1975600123405457</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08212240785360336</v>
+        <v>0.3500463962554932</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2753072679042816</v>
+        <v>0.273803174495697</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_17</t>
+          <t>model_5_9_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9700553111094359</v>
+        <v>0.9565146981402894</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7575057655758558</v>
+        <v>0.7665104449392062</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8916605369211758</v>
+        <v>0.9397769460571286</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9481272608303691</v>
+        <v>0.9180079685991817</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9426909064978575</v>
+        <v>0.936771623132824</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1256714463233948</v>
+        <v>0.1824985146522522</v>
       </c>
       <c r="H9" t="n">
-        <v>1.621560096740723</v>
+        <v>1.561345815658569</v>
       </c>
       <c r="I9" t="n">
-        <v>0.4722147881984711</v>
+        <v>0.2024766355752945</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08112096786499023</v>
+        <v>0.3530963957309723</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2766678929328918</v>
+        <v>0.2777864933013916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_16</t>
+          <t>model_5_9_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.969769815062406</v>
+        <v>0.956639237450732</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7574298568886112</v>
+        <v>0.7664488600175793</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8907961323386404</v>
+        <v>0.9383081659936129</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9487621617884259</v>
+        <v>0.9172018145301679</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9424035305865689</v>
+        <v>0.9358145502282699</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1268696188926697</v>
+        <v>0.1819758415222168</v>
       </c>
       <c r="H10" t="n">
-        <v>1.62206768989563</v>
+        <v>1.561757564544678</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4759824573993683</v>
+        <v>0.2074148505926132</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08012808114290237</v>
+        <v>0.3565680980682373</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2780552506446838</v>
+        <v>0.2819913029670715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_15</t>
+          <t>model_5_9_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9694786750199383</v>
+        <v>0.95673932178139</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7573507970844809</v>
+        <v>0.7663762725553652</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8899216826172526</v>
+        <v>0.9368352489349515</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9493915447703962</v>
+        <v>0.9163040219057429</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9421107224341276</v>
+        <v>0.9348108960754185</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1280914694070816</v>
+        <v>0.1815558075904846</v>
       </c>
       <c r="H11" t="n">
-        <v>1.622596263885498</v>
+        <v>1.562242984771729</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4797938764095306</v>
+        <v>0.2123669683933258</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07914382219314575</v>
+        <v>0.3604343831539154</v>
       </c>
       <c r="K11" t="n">
-        <v>0.279468834400177</v>
+        <v>0.2864007353782654</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_14</t>
+          <t>model_5_9_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9691817875397453</v>
+        <v>0.9568164285449483</v>
       </c>
       <c r="C12" t="n">
-        <v>0.757268541842969</v>
+        <v>0.7662934599063635</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8890370636136943</v>
+        <v>0.9353601788098873</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9500150554710712</v>
+        <v>0.9153209542436812</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9418123677447171</v>
+        <v>0.9337646644201946</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1293374449014664</v>
+        <v>0.1812322288751602</v>
       </c>
       <c r="H12" t="n">
-        <v>1.623146414756775</v>
+        <v>1.562796592712402</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4836496412754059</v>
+        <v>0.2173263132572174</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07816874980926514</v>
+        <v>0.3646679520606995</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2809091806411743</v>
+        <v>0.2909972369670868</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_13</t>
+          <t>model_5_9_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9688790034231078</v>
+        <v>0.9568718681422896</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7571830264038913</v>
+        <v>0.7662010231372871</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8881421176381741</v>
+        <v>0.9338851453447337</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9506326613594338</v>
+        <v>0.9142579491510202</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9415084031820936</v>
+        <v>0.9326792859294839</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1306081712245941</v>
+        <v>0.1809995472431183</v>
       </c>
       <c r="H13" t="n">
-        <v>1.62371826171875</v>
+        <v>1.563414931297302</v>
       </c>
       <c r="I13" t="n">
-        <v>0.4875503778457642</v>
+        <v>0.2222855389118195</v>
       </c>
       <c r="J13" t="n">
-        <v>0.07720290124416351</v>
+        <v>0.3692457675933838</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2823765873908997</v>
+        <v>0.2957656979560852</v>
       </c>
     </row>
     <row r="14">
@@ -936,478 +936,478 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9685702734528749</v>
+        <v>0.9569069964337884</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7570941847856081</v>
+        <v>0.7660995968832049</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8872367611450166</v>
+        <v>0.9324116678352483</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9512439327534141</v>
+        <v>0.9131207792406972</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9411987083186228</v>
+        <v>0.9315582035552489</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1319038271903992</v>
+        <v>0.1808521151542664</v>
       </c>
       <c r="H14" t="n">
-        <v>1.624312281608582</v>
+        <v>1.564093112945557</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4914965033531189</v>
+        <v>0.2272395342588425</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07624697685241699</v>
+        <v>0.3741429448127747</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2838717103004456</v>
+        <v>0.3006910681724548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_11</t>
+          <t>model_5_9_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9682554369118057</v>
+        <v>0.9569230310862659</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7570019286408898</v>
+        <v>0.7659897622836795</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8863209244772137</v>
+        <v>0.9309415080000445</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9518489575221186</v>
+        <v>0.911914710144706</v>
       </c>
       <c r="F15" t="n">
-        <v>0.940883261118344</v>
+        <v>0.9304045216386084</v>
       </c>
       <c r="G15" t="n">
-        <v>0.13322514295578</v>
+        <v>0.1807848364114761</v>
       </c>
       <c r="H15" t="n">
-        <v>1.624929189682007</v>
+        <v>1.564827561378479</v>
       </c>
       <c r="I15" t="n">
-        <v>0.4954883456230164</v>
+        <v>0.2321823835372925</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07530080527067184</v>
+        <v>0.3793368339538574</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2853945791721344</v>
+        <v>0.3057596385478973</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_10</t>
+          <t>model_5_9_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9679344039850563</v>
+        <v>0.9569211244621086</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7569061470212579</v>
+        <v>0.7658721359120451</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8853943230239223</v>
+        <v>0.929476208801514</v>
       </c>
       <c r="E16" t="n">
-        <v>0.952447475896628</v>
+        <v>0.9106445224796763</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9405619096422438</v>
+        <v>0.9292213107199523</v>
       </c>
       <c r="G16" t="n">
-        <v>0.134572446346283</v>
+        <v>0.1807928085327148</v>
       </c>
       <c r="H16" t="n">
-        <v>1.625569820404053</v>
+        <v>1.565614223480225</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4995270967483521</v>
+        <v>0.2371088862419128</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07436481863260269</v>
+        <v>0.3848068714141846</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2869459390640259</v>
+        <v>0.3109579086303711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_9</t>
+          <t>model_5_9_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.967607095919744</v>
+        <v>0.9569023957717783</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7568068047071768</v>
+        <v>0.7657472269973005</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8844570634073728</v>
+        <v>0.9280171075429816</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9530392630211743</v>
+        <v>0.9093148457603012</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9402346575971446</v>
+        <v>0.9280113163224821</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1359460800886154</v>
+        <v>0.1808714121580124</v>
       </c>
       <c r="H17" t="n">
-        <v>1.62623405456543</v>
+        <v>1.566449403762817</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5036122798919678</v>
+        <v>0.242014542222023</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0734393522143364</v>
+        <v>0.3905330896377563</v>
       </c>
       <c r="K17" t="n">
-        <v>0.28852578997612</v>
+        <v>0.3162739276885986</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_8</t>
+          <t>model_5_9_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9672734023280334</v>
+        <v>0.9568678745913006</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7567038239197085</v>
+        <v>0.7656156336633509</v>
       </c>
       <c r="D18" t="n">
-        <v>0.883509078107275</v>
+        <v>0.9265655670468779</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9536242837592812</v>
+        <v>0.9079302959234424</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9399014596481373</v>
+        <v>0.9267773281055932</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1373465210199356</v>
+        <v>0.1810162961483002</v>
       </c>
       <c r="H18" t="n">
-        <v>1.626922607421875</v>
+        <v>1.567329406738281</v>
       </c>
       <c r="I18" t="n">
-        <v>0.5077441930770874</v>
+        <v>0.2468947917222977</v>
       </c>
       <c r="J18" t="n">
-        <v>0.07252447307109833</v>
+        <v>0.3964956104755402</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2901343703269958</v>
+        <v>0.3216952681541443</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_7</t>
+          <t>model_5_9_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9669331136727483</v>
+        <v>0.9568185735698929</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7565971225360641</v>
+        <v>0.7654778248243453</v>
       </c>
       <c r="D19" t="n">
-        <v>0.882549960292514</v>
+        <v>0.9251226512902768</v>
       </c>
       <c r="E19" t="n">
-        <v>0.954202183368395</v>
+        <v>0.9064947709282237</v>
       </c>
       <c r="F19" t="n">
-        <v>0.939562097158279</v>
+        <v>0.9255216663790101</v>
       </c>
       <c r="G19" t="n">
-        <v>0.138774648308754</v>
+        <v>0.1812231987714767</v>
       </c>
       <c r="H19" t="n">
-        <v>1.627636194229126</v>
+        <v>1.568250894546509</v>
       </c>
       <c r="I19" t="n">
-        <v>0.511924684047699</v>
+        <v>0.2517460286617279</v>
       </c>
       <c r="J19" t="n">
-        <v>0.07162072509527206</v>
+        <v>0.4026776850223541</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2917726933956146</v>
+        <v>0.3272118866443634</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_6</t>
+          <t>model_5_9_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.966586237776081</v>
+        <v>0.9567554773352437</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7564866225943062</v>
+        <v>0.7653343094813824</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8815799065411495</v>
+        <v>0.9236897849110568</v>
       </c>
       <c r="E20" t="n">
-        <v>0.954772765545787</v>
+        <v>0.9050126775672667</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9392166052741812</v>
+        <v>0.9242470438048707</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1402304023504257</v>
+        <v>0.1814880222082138</v>
       </c>
       <c r="H20" t="n">
-        <v>1.628375053405762</v>
+        <v>1.569210529327393</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5161527991294861</v>
+        <v>0.2565634846687317</v>
       </c>
       <c r="J20" t="n">
-        <v>0.07072842121124268</v>
+        <v>0.4090602695941925</v>
       </c>
       <c r="K20" t="n">
-        <v>0.293440580368042</v>
+        <v>0.3328117728233337</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_5</t>
+          <t>model_5_9_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9662326056806388</v>
+        <v>0.9566793943349398</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7563722264840047</v>
+        <v>0.7651855320117362</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8805987275399632</v>
+        <v>0.9222677307556414</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9553361362126728</v>
+        <v>0.9034874572294022</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9388649216708941</v>
+        <v>0.9229553799893476</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1417145282030106</v>
+        <v>0.1818073093891144</v>
       </c>
       <c r="H21" t="n">
-        <v>1.629140138626099</v>
+        <v>1.570205450057983</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5204294919967651</v>
+        <v>0.2613445818424225</v>
       </c>
       <c r="J21" t="n">
-        <v>0.06984739750623703</v>
+        <v>0.415628582239151</v>
       </c>
       <c r="K21" t="n">
-        <v>0.295138418674469</v>
+        <v>0.3384865820407867</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_4</t>
+          <t>model_5_9_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9658720663185953</v>
+        <v>0.9565912842225959</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7562538720976896</v>
+        <v>0.7650319406788779</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8796060809867248</v>
+        <v>0.9208575149812349</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9558917432164498</v>
+        <v>0.9019229710637957</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9385068007531796</v>
+        <v>0.9216490037183671</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1432276368141174</v>
+        <v>0.1821771115064621</v>
       </c>
       <c r="H22" t="n">
-        <v>1.629931449890137</v>
+        <v>1.571232557296753</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5247560739517212</v>
+        <v>0.2660858929157257</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06897851824760437</v>
+        <v>0.4223659932613373</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2968672811985016</v>
+        <v>0.3442259728908539</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_3</t>
+          <t>model_5_9_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9655045313896038</v>
+        <v>0.9564919342296399</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7561314768976019</v>
+        <v>0.7648740297112108</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8786020363247707</v>
+        <v>0.9194599881756663</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9564397728381342</v>
+        <v>0.9003226330219913</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9381423241042812</v>
+        <v>0.9203299194803147</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1447701007127762</v>
+        <v>0.1825940310955048</v>
       </c>
       <c r="H23" t="n">
-        <v>1.630749940872192</v>
+        <v>1.572288513183594</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5291323661804199</v>
+        <v>0.2707845270633698</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06812147796154022</v>
+        <v>0.4292578101158142</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2986268401145935</v>
+        <v>0.3500212132930756</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_2</t>
+          <t>model_5_9_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9651298975778065</v>
+        <v>0.9563820666485978</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7560049477537563</v>
+        <v>0.7647121417343743</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8775866555189243</v>
+        <v>0.9180757570842579</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9569797531267363</v>
+        <v>0.8986895546912054</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9377714042872058</v>
+        <v>0.9189999240107224</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1463423520326614</v>
+        <v>0.1830551326274872</v>
       </c>
       <c r="H24" t="n">
-        <v>1.631596088409424</v>
+        <v>1.573370933532715</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5335580706596375</v>
+        <v>0.2754384875297546</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06727703660726547</v>
+        <v>0.4362905919551849</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3004175126552582</v>
+        <v>0.355864405632019</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_1</t>
+          <t>model_5_9_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9647480250952813</v>
+        <v>0.9562624770757803</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7558742048733065</v>
+        <v>0.7645467042708312</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8765594958412074</v>
+        <v>0.916705825954832</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9575118010952827</v>
+        <v>0.8970268910933527</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9373938991706838</v>
+        <v>0.9176608060883078</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1479449868202209</v>
+        <v>0.1835570335388184</v>
       </c>
       <c r="H25" t="n">
-        <v>1.632470369338989</v>
+        <v>1.574477314949036</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5380350947380066</v>
+        <v>0.2800443172454834</v>
       </c>
       <c r="J25" t="n">
-        <v>0.066444993019104</v>
+        <v>0.4434508383274078</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3022399544715881</v>
+        <v>0.361747682094574</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_5_9_0</t>
+          <t>model_5_9_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9643587133040259</v>
+        <v>0.9561337690609637</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7557391794306115</v>
+        <v>0.7643780612976682</v>
       </c>
       <c r="D26" t="n">
-        <v>0.875520454729154</v>
+        <v>0.9153502615283348</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9580354847679692</v>
+        <v>0.8953375769360028</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9370096511088993</v>
+        <v>0.9163141591991463</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1495788544416428</v>
+        <v>0.1840971708297729</v>
       </c>
       <c r="H26" t="n">
-        <v>1.633373260498047</v>
+        <v>1.575604915618896</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5425639152526855</v>
+        <v>0.2846018970012665</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06562603265047073</v>
+        <v>0.450725793838501</v>
       </c>
       <c r="K26" t="n">
-        <v>0.3040949702262878</v>
+        <v>0.3676639795303345</v>
       </c>
     </row>
   </sheetData>
